--- a/KatalonProjects/credData.xlsx
+++ b/KatalonProjects/credData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\NewArrivals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\KatalonProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -84,15 +84,6 @@
     <t>RSpass</t>
   </si>
   <si>
-    <t>https://test21.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test21.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test21.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
     <t>automation</t>
   </si>
   <si>
@@ -100,6 +91,15 @@
   </si>
   <si>
     <t>https://mirandakate.cabitest5.com</t>
+  </si>
+  <si>
+    <t>https://test14.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test14.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test14.cliotest.com/warehouse/control/main</t>
   </si>
 </sst>
 </file>
@@ -601,7 +601,7 @@
     </row>
     <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -613,13 +613,13 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -628,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -637,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>18</v>

--- a/KatalonProjects/credData.xlsx
+++ b/KatalonProjects/credData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>400000002</t>
   </si>
@@ -93,13 +93,19 @@
     <t>https://mirandakate.cabitest5.com</t>
   </si>
   <si>
-    <t>https://test14.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test14.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test14.cliotest.com/warehouse/control/main</t>
+    <t>https://test13.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test13.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test13.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>BSURL</t>
+  </si>
+  <si>
+    <t>https://mirandakate.cabionline.com/</t>
   </si>
 </sst>
 </file>
@@ -536,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -552,7 +558,7 @@
     <col min="7" max="7" width="48.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -598,8 +604,11 @@
       <c r="O1" t="s">
         <v>20</v>
       </c>
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
@@ -644,6 +653,9 @@
       </c>
       <c r="O2" t="s">
         <v>1</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -655,6 +667,7 @@
     <hyperlink ref="A2" r:id="rId4" display="https://test4.cliotest.com/backoffice/control/main"/>
     <hyperlink ref="M2" r:id="rId5"/>
     <hyperlink ref="N2" r:id="rId6"/>
+    <hyperlink ref="P2" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/KatalonProjects/credData.xlsx
+++ b/KatalonProjects/credData.xlsx
@@ -93,13 +93,13 @@
     <t>https://mirandakate.cabitest5.com</t>
   </si>
   <si>
-    <t>https://test14.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test14.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test14.cliotest.com/warehouse/control/main</t>
+    <t>https://test21.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test21.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>https://test21.cliotest.com/backoffice/control/main</t>
   </si>
 </sst>
 </file>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -550,6 +550,7 @@
     <col min="4" max="4" width="36.140625" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="48.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
@@ -601,7 +602,7 @@
     </row>
     <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -619,7 +620,7 @@
         <v>22</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -628,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -650,9 +651,9 @@
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="C@bi$ush5"/>
-    <hyperlink ref="G2" r:id="rId2" display="https://test17.cliotest.com/cabicentral/control/main"/>
-    <hyperlink ref="J2" r:id="rId3" display="https://test19.cliotest.com/warehouse/control/main"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://test4.cliotest.com/backoffice/control/main"/>
+    <hyperlink ref="G2" r:id="rId2"/>
+    <hyperlink ref="J2" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId4"/>
     <hyperlink ref="M2" r:id="rId5"/>
     <hyperlink ref="N2" r:id="rId6"/>
   </hyperlinks>

--- a/KatalonProjects/credData.xlsx
+++ b/KatalonProjects/credData.xlsx
@@ -90,22 +90,22 @@
     <t>cabiautomation</t>
   </si>
   <si>
-    <t>https://mirandakate.cabitest5.com</t>
-  </si>
-  <si>
-    <t>https://test13.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test13.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test13.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
     <t>BSURL</t>
   </si>
   <si>
     <t>https://mirandakate.cabionline.com/</t>
+  </si>
+  <si>
+    <t>https://mirandakate.cabisandbox.com</t>
+  </si>
+  <si>
+    <t>https://sandbox.cabiclio.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://sandbox.cabiclio.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://sandbox.cabiclio.com/warehouse/control/main</t>
   </si>
 </sst>
 </file>
@@ -545,7 +545,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -605,12 +605,12 @@
         <v>20</v>
       </c>
       <c r="P1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -628,7 +628,7 @@
         <v>22</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -637,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -646,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>18</v>
@@ -655,16 +655,16 @@
         <v>1</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="C@bi$ush5"/>
-    <hyperlink ref="G2" r:id="rId2" display="https://test17.cliotest.com/cabicentral/control/main"/>
-    <hyperlink ref="J2" r:id="rId3" display="https://test19.cliotest.com/warehouse/control/main"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://test4.cliotest.com/backoffice/control/main"/>
+    <hyperlink ref="G2" r:id="rId2"/>
+    <hyperlink ref="J2" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId4"/>
     <hyperlink ref="M2" r:id="rId5"/>
     <hyperlink ref="N2" r:id="rId6"/>
     <hyperlink ref="P2" r:id="rId7"/>

--- a/KatalonProjects/credData.xlsx
+++ b/KatalonProjects/credData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>400000002</t>
   </si>
@@ -93,13 +93,19 @@
     <t>https://mirandakate.cabitest5.com</t>
   </si>
   <si>
-    <t>https://test21.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test21.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>https://test21.cliotest.com/backoffice/control/main</t>
+    <t>https://test19.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test19.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test19.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>BSURL</t>
+  </si>
+  <si>
+    <t>https://mirandakate.cabionline.com/</t>
   </si>
 </sst>
 </file>
@@ -536,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -550,10 +556,10 @@
     <col min="4" max="4" width="36.140625" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="48.85546875" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" customWidth="1"/>
+    <col min="13" max="13" width="24.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -599,10 +605,13 @@
       <c r="O1" t="s">
         <v>20</v>
       </c>
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -620,7 +629,7 @@
         <v>22</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -629,7 +638,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -645,6 +654,9 @@
       </c>
       <c r="O2" t="s">
         <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonProjects/credData.xlsx
+++ b/KatalonProjects/credData.xlsx
@@ -93,13 +93,13 @@
     <t>https://mirandakate.cabitest5.com</t>
   </si>
   <si>
-    <t>https://test14.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test14.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test14.cliotest.com/warehouse/control/main</t>
+    <t>https://test21.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test21.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test21.cliotest.com/warehouse/control/main</t>
   </si>
 </sst>
 </file>

--- a/KatalonProjects/credData.xlsx
+++ b/KatalonProjects/credData.xlsx
@@ -90,16 +90,16 @@
     <t>cabiautomation</t>
   </si>
   <si>
-    <t>https://mirandakate.cabitest5.com</t>
-  </si>
-  <si>
-    <t>https://test21.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test21.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test21.cliotest.com/warehouse/control/main</t>
+    <t>https://sandbox.cabiclio.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://sandbox.cabiclio.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://sandbox.cabiclio.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>https://mirandakate.cabisandbox.com</t>
   </si>
 </sst>
 </file>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -601,7 +601,7 @@
     </row>
     <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -628,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -637,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>18</v>
@@ -651,8 +651,8 @@
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="C@bi$ush5"/>
     <hyperlink ref="G2" r:id="rId2" display="https://test17.cliotest.com/cabicentral/control/main"/>
-    <hyperlink ref="J2" r:id="rId3" display="https://test19.cliotest.com/warehouse/control/main"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://test4.cliotest.com/backoffice/control/main"/>
+    <hyperlink ref="J2" r:id="rId3" display="https://test21.cliotest.com/warehouse/control/main"/>
+    <hyperlink ref="A2" r:id="rId4"/>
     <hyperlink ref="M2" r:id="rId5"/>
     <hyperlink ref="N2" r:id="rId6"/>
   </hyperlinks>

--- a/KatalonProjects/credData.xlsx
+++ b/KatalonProjects/credData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>400000002</t>
   </si>
@@ -27,21 +27,12 @@
     <t>blackdress19</t>
   </si>
   <si>
-    <t>https://pushofbiz.cliotest.com/login.php</t>
-  </si>
-  <si>
-    <t>ofbizURL</t>
-  </si>
-  <si>
     <t>ofbizuser</t>
   </si>
   <si>
     <t>ofbizpass</t>
   </si>
   <si>
-    <t>BOURL</t>
-  </si>
-  <si>
     <t>BOuser</t>
   </si>
   <si>
@@ -51,18 +42,12 @@
     <t>CCuser</t>
   </si>
   <si>
-    <t>CCURL</t>
-  </si>
-  <si>
     <t>ehudson</t>
   </si>
   <si>
     <t>CCpass</t>
   </si>
   <si>
-    <t>CWURL</t>
-  </si>
-  <si>
     <t>rsuarez</t>
   </si>
   <si>
@@ -72,9 +57,6 @@
     <t>CWpass</t>
   </si>
   <si>
-    <t>RSURL</t>
-  </si>
-  <si>
     <t>michigan@na.com</t>
   </si>
   <si>
@@ -88,18 +70,6 @@
   </si>
   <si>
     <t>cabiautomation</t>
-  </si>
-  <si>
-    <t>https://sandbox.cabiclio.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://sandbox.cabiclio.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://sandbox.cabiclio.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>https://mirandakate.cabisandbox.com</t>
   </si>
 </sst>
 </file>
@@ -163,12 +133,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -536,125 +505,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="48.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
         <v>10</v>
       </c>
       <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="J2" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="C@bi$ush5"/>
-    <hyperlink ref="G2" r:id="rId2" display="https://test17.cliotest.com/cabicentral/control/main"/>
-    <hyperlink ref="J2" r:id="rId3" display="https://test21.cliotest.com/warehouse/control/main"/>
-    <hyperlink ref="A2" r:id="rId4"/>
-    <hyperlink ref="M2" r:id="rId5"/>
-    <hyperlink ref="N2" r:id="rId6"/>
+    <hyperlink ref="D2" r:id="rId1" display="C@bi$ush5"/>
+    <hyperlink ref="I2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/KatalonProjects/credData.xlsx
+++ b/KatalonProjects/credData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>400000002</t>
   </si>
@@ -90,16 +90,13 @@
     <t>cabiautomation</t>
   </si>
   <si>
-    <t>https://sandbox.cabiclio.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://sandbox.cabiclio.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://sandbox.cabiclio.com/warehouse/control/main</t>
-  </si>
-  <si>
     <t>https://mirandakate.cabisandbox.com</t>
+  </si>
+  <si>
+    <t>https://test19.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test19.cliotest.com/warehouse</t>
   </si>
 </sst>
 </file>
@@ -538,8 +535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -550,6 +547,7 @@
     <col min="4" max="4" width="36.140625" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="48.85546875" customWidth="1"/>
+    <col min="10" max="10" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
@@ -601,7 +599,7 @@
     </row>
     <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -637,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>18</v>
@@ -650,8 +648,8 @@
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="C@bi$ush5"/>
-    <hyperlink ref="G2" r:id="rId2" display="https://test17.cliotest.com/cabicentral/control/main"/>
-    <hyperlink ref="J2" r:id="rId3" display="https://test21.cliotest.com/warehouse/control/main"/>
+    <hyperlink ref="G2" r:id="rId2"/>
+    <hyperlink ref="J2" r:id="rId3"/>
     <hyperlink ref="A2" r:id="rId4"/>
     <hyperlink ref="M2" r:id="rId5"/>
     <hyperlink ref="N2" r:id="rId6"/>

--- a/KatalonProjects/credData.xlsx
+++ b/KatalonProjects/credData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>400000002</t>
   </si>
@@ -27,21 +27,12 @@
     <t>blackdress19</t>
   </si>
   <si>
-    <t>https://pushofbiz.cliotest.com/login.php</t>
-  </si>
-  <si>
-    <t>ofbizURL</t>
-  </si>
-  <si>
     <t>ofbizuser</t>
   </si>
   <si>
     <t>ofbizpass</t>
   </si>
   <si>
-    <t>BOURL</t>
-  </si>
-  <si>
     <t>BOuser</t>
   </si>
   <si>
@@ -51,18 +42,12 @@
     <t>CCuser</t>
   </si>
   <si>
-    <t>CCURL</t>
-  </si>
-  <si>
     <t>ehudson</t>
   </si>
   <si>
     <t>CCpass</t>
   </si>
   <si>
-    <t>CWURL</t>
-  </si>
-  <si>
     <t>rsuarez</t>
   </si>
   <si>
@@ -72,9 +57,6 @@
     <t>CWpass</t>
   </si>
   <si>
-    <t>RSURL</t>
-  </si>
-  <si>
     <t>michigan@na.com</t>
   </si>
   <si>
@@ -88,15 +70,6 @@
   </si>
   <si>
     <t>cabiautomation</t>
-  </si>
-  <si>
-    <t>https://mirandakate.cabisandbox.com</t>
-  </si>
-  <si>
-    <t>https://test19.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test19.cliotest.com/warehouse</t>
   </si>
 </sst>
 </file>
@@ -160,12 +133,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -533,126 +505,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="47.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="48.85546875" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G1" t="s">
         <v>10</v>
       </c>
       <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="J2" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="C@bi$ush5"/>
-    <hyperlink ref="G2" r:id="rId2"/>
-    <hyperlink ref="J2" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
-    <hyperlink ref="M2" r:id="rId5"/>
-    <hyperlink ref="N2" r:id="rId6"/>
+    <hyperlink ref="D2" r:id="rId1" display="C@bi$ush5"/>
+    <hyperlink ref="I2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/KatalonProjects/credData.xlsx
+++ b/KatalonProjects/credData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\KatalonProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Office\katalon\KatalonProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B893B3A6-E266-45C1-BCB4-11A9E5F1625C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="249"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="249" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,19 +91,19 @@
     <t>cabiautomation</t>
   </si>
   <si>
-    <t>https://mirandakate.cabisandbox.com</t>
-  </si>
-  <si>
     <t>https://test19.cliotest.com/backoffice/control/main</t>
   </si>
   <si>
     <t>https://test19.cliotest.com/warehouse</t>
+  </si>
+  <si>
+    <t>https://mirandakate.cabitest5.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -168,7 +169,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Excel Built-in Normal" xfId="1"/>
+    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -532,11 +533,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -548,6 +549,7 @@
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="48.85546875" customWidth="1"/>
     <col min="10" max="10" width="30.7109375" customWidth="1"/>
+    <col min="13" max="13" width="38.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
@@ -599,7 +601,7 @@
     </row>
     <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -617,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -626,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -635,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>18</v>
@@ -647,12 +649,12 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="C@bi$ush5"/>
-    <hyperlink ref="G2" r:id="rId2"/>
-    <hyperlink ref="J2" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
-    <hyperlink ref="M2" r:id="rId5"/>
-    <hyperlink ref="N2" r:id="rId6"/>
+    <hyperlink ref="F2" r:id="rId1" display="C@bi$ush5" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J2" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="M2" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="N2" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/KatalonProjects/credData.xlsx
+++ b/KatalonProjects/credData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\NewArrivals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation_new\KatalonProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -87,9 +87,6 @@
     <t>https://test21.cliotest.com/backoffice/control/main</t>
   </si>
   <si>
-    <t>https://test21.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
     <t>https://test21.cliotest.com/warehouse/control/main</t>
   </si>
   <si>
@@ -100,6 +97,9 @@
   </si>
   <si>
     <t>https://mirandakate.cabitest5.com</t>
+  </si>
+  <si>
+    <t>https://test14.cliotest.com/cabicentral/control/main</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -613,13 +613,13 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -628,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -637,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>18</v>
@@ -650,7 +650,7 @@
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" display="C@bi$ush5"/>
-    <hyperlink ref="G2" r:id="rId2" display="https://test17.cliotest.com/cabicentral/control/main"/>
+    <hyperlink ref="G2" r:id="rId2"/>
     <hyperlink ref="J2" r:id="rId3" display="https://test19.cliotest.com/warehouse/control/main"/>
     <hyperlink ref="A2" r:id="rId4" display="https://test4.cliotest.com/backoffice/control/main"/>
     <hyperlink ref="M2" r:id="rId5"/>

--- a/KatalonProjects/credData.xlsx
+++ b/KatalonProjects/credData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>400000002</t>
   </si>
@@ -57,9 +57,6 @@
     <t>CWpass</t>
   </si>
   <si>
-    <t>michigan@na.com</t>
-  </si>
-  <si>
     <t>RSuser</t>
   </si>
   <si>
@@ -70,6 +67,12 @@
   </si>
   <si>
     <t>cabiautomation</t>
+  </si>
+  <si>
+    <t>RSemail</t>
+  </si>
+  <si>
+    <t>vishal@test.com</t>
   </si>
 </sst>
 </file>
@@ -505,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -516,9 +519,11 @@
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -544,13 +549,16 @@
         <v>11</v>
       </c>
       <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
-        <v>14</v>
+      <c r="K1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -558,10 +566,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -576,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
         <v>1</v>

--- a/KatalonProjects/credData.xlsx
+++ b/KatalonProjects/credData.xlsx
@@ -72,7 +72,7 @@
     <t>RSemail</t>
   </si>
   <si>
-    <t>vishal@test.com</t>
+    <t>sushantguest1@test.com</t>
   </si>
 </sst>
 </file>

--- a/KatalonProjects/credData.xlsx
+++ b/KatalonProjects/credData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\KatalonProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation_new\KatalonProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -72,7 +72,7 @@
     <t>RSemail</t>
   </si>
   <si>
-    <t>vishal@test.com</t>
+    <t>sushantguest1@test.com</t>
   </si>
 </sst>
 </file>

--- a/KatalonProjects/credData.xlsx
+++ b/KatalonProjects/credData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation_new\KatalonProjects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\KatalonProjects\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -72,7 +72,7 @@
     <t>RSemail</t>
   </si>
   <si>
-    <t>sushantguest1@test.com</t>
+    <t>vishalguest1@test.com</t>
   </si>
 </sst>
 </file>
@@ -594,7 +594,7 @@
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="C@bi$ush5"/>
-    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="I2" r:id="rId2" display="sushantguest1@test.com"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/KatalonProjects/credData.xlsx
+++ b/KatalonProjects/credData.xlsx
@@ -72,7 +72,7 @@
     <t>RSemail</t>
   </si>
   <si>
-    <t>vishalguest1@test.com</t>
+    <t>sushantguest1@test.com</t>
   </si>
 </sst>
 </file>
@@ -510,7 +510,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -594,7 +594,7 @@
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="C@bi$ush5"/>
-    <hyperlink ref="I2" r:id="rId2" display="sushantguest1@test.com"/>
+    <hyperlink ref="I2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/KatalonProjects/credData.xlsx
+++ b/KatalonProjects/credData.xlsx
@@ -72,7 +72,7 @@
     <t>RSemail</t>
   </si>
   <si>
-    <t>sushantguest1@test.com</t>
+    <t>guest1-test@test.com</t>
   </si>
 </sst>
 </file>

--- a/KatalonProjects/credData.xlsx
+++ b/KatalonProjects/credData.xlsx
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
-    <t>400000002</t>
-  </si>
-  <si>
     <t>blackdress19</t>
   </si>
   <si>
@@ -73,6 +70,9 @@
   </si>
   <si>
     <t>guest1-test@test.com</t>
+  </si>
+  <si>
+    <t>CA1402</t>
   </si>
 </sst>
 </file>
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -525,69 +525,69 @@
   <sheetData>
     <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
       <c r="K1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/KatalonProjects/credData.xlsx
+++ b/KatalonProjects/credData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>blackdress19</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>guest1-test@test.com</t>
-  </si>
-  <si>
-    <t>CA1402</t>
   </si>
 </sst>
 </file>
@@ -559,8 +556,8 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
+      <c r="A2" s="1">
+        <v>400000002</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>

--- a/KatalonProjects/credData.xlsx
+++ b/KatalonProjects/credData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>blackdress19</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>guest1-test@test.com</t>
+  </si>
+  <si>
+    <t>UK1312</t>
   </si>
 </sst>
 </file>
@@ -556,8 +559,8 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>400000002</v>
+      <c r="A2" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>

--- a/KatalonProjects/credData.xlsx
+++ b/KatalonProjects/credData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>blackdress19</t>
   </si>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>guest1-test@test.com</t>
-  </si>
-  <si>
-    <t>UK1312</t>
   </si>
 </sst>
 </file>
@@ -559,8 +556,8 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
+      <c r="A2" s="1">
+        <v>400000002</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>

--- a/KatalonProjects/credData.xlsx
+++ b/KatalonProjects/credData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>blackdress19</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>guest1-test@test.com</t>
+  </si>
+  <si>
+    <t>WMpass</t>
   </si>
 </sst>
 </file>
@@ -505,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -520,7 +523,7 @@
     <col min="10" max="10" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -554,8 +557,11 @@
       <c r="K1" t="s">
         <v>15</v>
       </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>400000002</v>
       </c>
@@ -584,6 +590,9 @@
         <v>16</v>
       </c>
       <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
         <v>0</v>
       </c>
     </row>

--- a/KatalonProjects/credData.xlsx
+++ b/KatalonProjects/credData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>blackdress19</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>WMpass</t>
+  </si>
+  <si>
+    <t>uk1312</t>
   </si>
 </sst>
 </file>
@@ -511,7 +514,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -562,8 +565,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>400000002</v>
+      <c r="A2" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>

--- a/KatalonProjects/credData.xlsx
+++ b/KatalonProjects/credData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>blackdress19</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>WMpass</t>
-  </si>
-  <si>
-    <t>uk1312</t>
   </si>
 </sst>
 </file>
@@ -514,7 +511,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -565,8 +562,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
+      <c r="A2" s="1">
+        <v>400000002</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>

--- a/KatalonProjects/credData.xlsx
+++ b/KatalonProjects/credData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>blackdress19</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>WMpass</t>
+  </si>
+  <si>
+    <t>ca1402</t>
   </si>
 </sst>
 </file>
@@ -511,7 +514,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -562,8 +565,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>400000002</v>
+      <c r="A2" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>

--- a/KatalonProjects/credData.xlsx
+++ b/KatalonProjects/credData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>blackdress19</t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>WMpass</t>
-  </si>
-  <si>
-    <t>ca1402</t>
   </si>
 </sst>
 </file>
@@ -514,7 +511,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -565,8 +562,8 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
+      <c r="A2" s="1">
+        <v>400000002</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>

--- a/KatalonProjects/credData.xlsx
+++ b/KatalonProjects/credData.xlsx
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/KatalonProjects/credData.xlsx
+++ b/KatalonProjects/credData.xlsx
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
